--- a/pictures.xlsx
+++ b/pictures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lancs\homes\46\manders3\Downloads\OneDrive_2025-04-01\Stimuli judgement 2 CitC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manders3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0849F-B8BA-4715-8F12-82631B0DA3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EDC19-31C7-4509-9049-5CC520080738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{8E5E1B0D-120C-2B45-A214-D1BA7E4AC62B}"/>
   </bookViews>
@@ -113,106 +113,106 @@
     <t>pictures/Blockfront.jpg</t>
   </si>
   <si>
+    <t>pictures/Toybus.jpg</t>
+  </si>
+  <si>
+    <t>pictures/Sponge.jpg</t>
+  </si>
+  <si>
+    <t>pictures/Tinycupbin.jpg</t>
+  </si>
+  <si>
+    <t>pictures/Holeseen.jpg</t>
+  </si>
+  <si>
+    <t>pictures/Inkblot.jpg</t>
+  </si>
+  <si>
+    <t>pictures/Clip.jpg</t>
+  </si>
+  <si>
+    <t>pictures/Candlefar.jpg</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>imageA</t>
+  </si>
+  <si>
+    <t>imageB</t>
+  </si>
+  <si>
+    <t>leftImage</t>
+  </si>
+  <si>
+    <t>rightImage</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>pictures/Droodle.png</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Stage 6</t>
+  </si>
+  <si>
+    <t>Stage 7</t>
+  </si>
+  <si>
+    <t>Stage 8</t>
+  </si>
+  <si>
+    <t>Stage 9</t>
+  </si>
+  <si>
+    <t>Stage 10</t>
+  </si>
+  <si>
+    <t>Stage 11</t>
+  </si>
+  <si>
+    <t>Stage 12</t>
+  </si>
+  <si>
+    <t>Stage 13</t>
+  </si>
+  <si>
+    <t>Stage 14</t>
+  </si>
+  <si>
+    <t>Stage 15</t>
+  </si>
+  <si>
+    <t>Stage 16</t>
+  </si>
+  <si>
+    <t>Stage 17</t>
+  </si>
+  <si>
+    <t>Stage 18</t>
+  </si>
+  <si>
     <t>pictures/Optical.jpg</t>
-  </si>
-  <si>
-    <t>pictures/Toybus.jpg</t>
-  </si>
-  <si>
-    <t>pictures/Sponge.jpg</t>
-  </si>
-  <si>
-    <t>pictures/Tinycupbin.jpg</t>
-  </si>
-  <si>
-    <t>pictures/Holeseen.jpg</t>
-  </si>
-  <si>
-    <t>pictures/Droodle.jpg</t>
-  </si>
-  <si>
-    <t>pictures/Inkblot.jpg</t>
-  </si>
-  <si>
-    <t>pictures/Clip.jpg</t>
-  </si>
-  <si>
-    <t>pictures/Candlefar.jpg</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>imageA</t>
-  </si>
-  <si>
-    <t>imageB</t>
-  </si>
-  <si>
-    <t>leftImage</t>
-  </si>
-  <si>
-    <t>rightImage</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>test_name</t>
-  </si>
-  <si>
-    <t>Folder1</t>
-  </si>
-  <si>
-    <t>Folder2</t>
-  </si>
-  <si>
-    <t>Folder3</t>
-  </si>
-  <si>
-    <t>Folder4</t>
-  </si>
-  <si>
-    <t>Folder5</t>
-  </si>
-  <si>
-    <t>Folder6</t>
-  </si>
-  <si>
-    <t>Folder7</t>
-  </si>
-  <si>
-    <t>Folder8</t>
-  </si>
-  <si>
-    <t>Folder9</t>
-  </si>
-  <si>
-    <t>Folder10</t>
-  </si>
-  <si>
-    <t>Folder11</t>
-  </si>
-  <si>
-    <t>Folder12</t>
-  </si>
-  <si>
-    <t>Folder13</t>
-  </si>
-  <si>
-    <t>Folder14</t>
-  </si>
-  <si>
-    <t>Folder15</t>
-  </si>
-  <si>
-    <t>Folder16</t>
-  </si>
-  <si>
-    <t>Folder17</t>
-  </si>
-  <si>
-    <t>Folder18</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -604,16 +604,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -624,10 +624,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -638,10 +638,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -666,10 +666,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -680,10 +680,10 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -694,10 +694,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -719,13 +719,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -733,13 +733,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -747,13 +747,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -761,13 +761,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -775,13 +775,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -792,10 +792,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -803,13 +803,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -817,13 +817,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -831,13 +831,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -848,10 +848,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -859,13 +859,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/pictures.xlsx
+++ b/pictures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manders3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EDC19-31C7-4509-9049-5CC520080738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E129C-BFB7-40B4-A4C2-23EDD81ADC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{8E5E1B0D-120C-2B45-A214-D1BA7E4AC62B}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -638,7 +638,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
